--- a/excel/202310.xlsx
+++ b/excel/202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI80"/>
+  <dimension ref="A1:AI81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -10704,17 +10704,17 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>赤木心惠</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Akagi Shinei</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10729,7 +10729,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
@@ -10874,24 +10874,24 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -10976,22 +10976,22 @@
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U60" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V60" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W60" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X60" t="inlineStr">
@@ -11051,24 +11051,24 @@
       </c>
       <c r="AI60" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11078,27 +11078,27 @@
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
@@ -11128,12 +11128,12 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -11148,27 +11148,27 @@
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -11228,19 +11228,19 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -11260,7 +11260,7 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
@@ -11300,7 +11300,7 @@
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
@@ -11405,24 +11405,24 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0AA96</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11432,12 +11432,12 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11477,17 +11477,17 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -11502,27 +11502,27 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -11582,19 +11582,19 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>李侑萱</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Yolanda Lee</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -11766,12 +11766,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>葉雲旭</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Johnny Yeh</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11943,17 +11943,17 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>凃美君</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Chun Tu</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
@@ -11973,7 +11973,7 @@
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
@@ -12008,12 +12008,12 @@
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P66" t="inlineStr">
@@ -12058,7 +12058,7 @@
       </c>
       <c r="X66" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y66" t="inlineStr">
@@ -12113,24 +12113,24 @@
       </c>
       <c r="AI66" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -12140,27 +12140,27 @@
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
@@ -12195,7 +12195,7 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
@@ -12210,32 +12210,32 @@
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -12290,19 +12290,19 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -12317,7 +12317,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -12337,7 +12337,7 @@
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -12367,7 +12367,7 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
@@ -12467,19 +12467,19 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -12494,7 +12494,7 @@
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -12514,7 +12514,7 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
@@ -12544,7 +12544,7 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
@@ -12589,12 +12589,12 @@
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z69" t="inlineStr">
@@ -12644,19 +12644,19 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -12766,12 +12766,12 @@
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -12821,19 +12821,19 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -13005,17 +13005,17 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -13095,27 +13095,27 @@
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W72" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X72" t="inlineStr">
@@ -13175,19 +13175,19 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
@@ -13272,27 +13272,27 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
@@ -13352,19 +13352,19 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
@@ -13536,17 +13536,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -13556,27 +13556,27 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -13601,17 +13601,17 @@
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
@@ -13626,7 +13626,7 @@
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
@@ -13706,24 +13706,24 @@
       </c>
       <c r="AI75" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2AA8S</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -13733,17 +13733,17 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
@@ -13753,7 +13753,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -13778,17 +13778,17 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -13803,7 +13803,7 @@
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
@@ -13883,19 +13883,19 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
@@ -14067,12 +14067,12 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
@@ -14244,12 +14244,12 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>張雅惠</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Sofeya Chang</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
@@ -14421,170 +14421,347 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
+          <t>林華宸</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Wayne Lin</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W80" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI80" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B81" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E80" t="inlineStr">
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
         <is>
           <t>7,140</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
+      <c r="F81" t="inlineStr">
         <is>
           <t>8,280</t>
         </is>
       </c>
-      <c r="G80" t="inlineStr">
+      <c r="G81" t="inlineStr">
         <is>
           <t>8,260</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H81" t="inlineStr">
         <is>
           <t>3,920</t>
         </is>
       </c>
-      <c r="I80" t="inlineStr">
+      <c r="I81" t="inlineStr">
         <is>
           <t>7,700</t>
         </is>
       </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N80" t="inlineStr">
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
         <is>
           <t>7,280</t>
         </is>
       </c>
-      <c r="O80" t="inlineStr">
+      <c r="O81" t="inlineStr">
         <is>
           <t>9,420</t>
         </is>
       </c>
-      <c r="P80" t="inlineStr">
+      <c r="P81" t="inlineStr">
         <is>
           <t>9,560</t>
         </is>
       </c>
-      <c r="Q80" t="inlineStr">
+      <c r="Q81" t="inlineStr">
         <is>
           <t>2,140</t>
         </is>
       </c>
-      <c r="R80" t="inlineStr">
+      <c r="R81" t="inlineStr">
         <is>
           <t>2,000</t>
         </is>
       </c>
-      <c r="S80" t="inlineStr">
+      <c r="S81" t="inlineStr">
         <is>
           <t>9,080</t>
         </is>
       </c>
-      <c r="T80" t="inlineStr">
+      <c r="T81" t="inlineStr">
         <is>
           <t>8,580</t>
         </is>
       </c>
-      <c r="U80" t="inlineStr">
+      <c r="U81" t="inlineStr">
         <is>
           <t>9,140</t>
         </is>
       </c>
-      <c r="V80" t="inlineStr">
+      <c r="V81" t="inlineStr">
         <is>
           <t>8,860</t>
         </is>
       </c>
-      <c r="W80" t="inlineStr">
+      <c r="W81" t="inlineStr">
         <is>
           <t>9,480</t>
         </is>
       </c>
-      <c r="X80" t="inlineStr">
+      <c r="X81" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="Y80" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Z80" t="inlineStr">
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AA80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB80" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AC80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD80" t="inlineStr">
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AE80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH80" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI80" t="inlineStr">
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
         <is>
           <t>112,380</t>
         </is>

--- a/excel/202310.xlsx
+++ b/excel/202310.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI81"/>
+  <dimension ref="A1:AI84"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6456,17 +6456,17 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>劉嘉鈴</t>
+          <t>余承翰</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Nicole Liu</t>
+          <t>Jenson Yu</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6491,7 +6491,7 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I35" t="inlineStr">
@@ -6521,17 +6521,17 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -6626,24 +6626,24 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>賴冠達</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Ryan Lai</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6703,7 +6703,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
@@ -6803,19 +6803,19 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1540</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>劉嘉鈴</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Nicole Liu</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
@@ -6875,17 +6875,17 @@
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6980,19 +6980,19 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -7017,7 +7017,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
@@ -7057,7 +7057,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
@@ -7077,27 +7077,27 @@
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X38" t="inlineStr">
@@ -7157,19 +7157,19 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>1540</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -7341,12 +7341,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -7371,7 +7371,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
@@ -7431,27 +7431,27 @@
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X40" t="inlineStr">
@@ -7511,24 +7511,24 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>840</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>吳韻秋</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Yunchiu Wu</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7553,7 +7553,7 @@
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -7688,24 +7688,24 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>張維辛</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Darren Chang</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0AA4N1</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -7730,7 +7730,7 @@
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
@@ -7865,19 +7865,19 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>王耀鋒</t>
+          <t>吳韻秋</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Max Wang</t>
+          <t>Yunchiu Wu</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -8049,12 +8049,12 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>陳竑廷</t>
+          <t>張維辛</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Jeff Chen</t>
+          <t>Darren Chang</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -8114,17 +8114,17 @@
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -8219,24 +8219,24 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>王耀鋒</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Max Wang</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8261,7 +8261,7 @@
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
@@ -8396,24 +8396,24 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>李沐潔</t>
+          <t>陳竑廷</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Kayla Lee</t>
+          <t>Jeff Chen</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0AA4N1</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -8438,7 +8438,7 @@
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I46" t="inlineStr">
@@ -8468,17 +8468,17 @@
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8573,19 +8573,19 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -8757,12 +8757,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>楊于箴</t>
+          <t>李沐潔</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Sandy Yang</t>
+          <t>Kayla Lee</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -8777,17 +8777,17 @@
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
@@ -8797,7 +8797,7 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
@@ -8872,7 +8872,7 @@
       </c>
       <c r="X48" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y48" t="inlineStr">
@@ -8927,19 +8927,19 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -9049,7 +9049,7 @@
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
@@ -9104,24 +9104,24 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>楊于箴</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Sandy Yang</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -9176,17 +9176,17 @@
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
@@ -9201,7 +9201,7 @@
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
@@ -9211,22 +9211,22 @@
       </c>
       <c r="U50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X50" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y50" t="inlineStr">
@@ -9281,24 +9281,24 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>傅子峰</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Gibson Fu</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>0AA61</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -9308,17 +9308,17 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
@@ -9328,7 +9328,7 @@
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
@@ -9353,17 +9353,17 @@
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U51" t="inlineStr">
@@ -9393,17 +9393,17 @@
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X51" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y51" t="inlineStr">
@@ -9458,24 +9458,24 @@
       </c>
       <c r="AI51" t="inlineStr">
         <is>
-          <t>280</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>潘梅寧</t>
+          <t>戴新華</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Amy Pan</t>
+          <t>Dixie Tai</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>0AA7</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
@@ -9560,7 +9560,7 @@
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U52" t="inlineStr">
@@ -9570,7 +9570,7 @@
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W52" t="inlineStr">
@@ -9642,17 +9642,17 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>鍾幸玲</t>
+          <t>傅子峰</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Shelly Chung</t>
+          <t>Gibson Fu</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>0AA7</t>
+          <t>0AA61</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
@@ -9732,7 +9732,7 @@
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
@@ -9742,7 +9742,7 @@
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
@@ -9787,7 +9787,7 @@
       </c>
       <c r="AD53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE53" t="inlineStr">
@@ -9812,24 +9812,24 @@
       </c>
       <c r="AI53" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>280</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>蕭順仁</t>
+          <t>潘梅寧</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Allen Hsiao</t>
+          <t>Amy Pan</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
@@ -9844,7 +9844,7 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -9854,7 +9854,7 @@
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I54" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
@@ -9914,27 +9914,27 @@
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y54" t="inlineStr">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA54" t="inlineStr">
@@ -9954,7 +9954,7 @@
       </c>
       <c r="AB54" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AC54" t="inlineStr">
@@ -9989,24 +9989,24 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>1260</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>鍾幸玲</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Shelly Chung</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>0AA7</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -10021,7 +10021,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -10036,7 +10036,7 @@
       </c>
       <c r="I55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
@@ -10091,7 +10091,7 @@
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U55" t="inlineStr">
@@ -10166,24 +10166,24 @@
       </c>
       <c r="AI55" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>魏宏霖</t>
+          <t>蕭順仁</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Henry Wei</t>
+          <t>Allen Hsiao</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -10198,17 +10198,17 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I56" t="inlineStr">
@@ -10243,12 +10243,12 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -10268,7 +10268,7 @@
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U56" t="inlineStr">
@@ -10283,12 +10283,12 @@
       </c>
       <c r="W56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y56" t="inlineStr">
@@ -10298,7 +10298,7 @@
       </c>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA56" t="inlineStr">
@@ -10308,7 +10308,7 @@
       </c>
       <c r="AB56" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AC56" t="inlineStr">
@@ -10343,24 +10343,24 @@
       </c>
       <c r="AI56" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>1260</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>黃式賢</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Shiny Huang</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>0AA81</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -10375,12 +10375,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
@@ -10390,7 +10390,7 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
@@ -10420,7 +10420,7 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P57" t="inlineStr">
@@ -10445,12 +10445,12 @@
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U57" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
@@ -10495,7 +10495,7 @@
       </c>
       <c r="AD57" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AE57" t="inlineStr">
@@ -10520,24 +10520,24 @@
       </c>
       <c r="AI57" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>賴韋任</t>
+          <t>魏宏霖</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Leo Lai</t>
+          <t>Henry Wei</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>0AA82</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -10557,7 +10557,7 @@
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
@@ -10597,7 +10597,7 @@
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P58" t="inlineStr">
@@ -10627,7 +10627,7 @@
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
@@ -10652,7 +10652,7 @@
       </c>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AA58" t="inlineStr">
@@ -10697,24 +10697,24 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>赤木心惠</t>
+          <t>黃式賢</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Akagi Shinei</t>
+          <t>Shiny Huang</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>0AA82</t>
+          <t>0AA81</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -10734,7 +10734,7 @@
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -10774,7 +10774,7 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P59" t="inlineStr">
@@ -10804,7 +10804,7 @@
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
@@ -10874,24 +10874,24 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>賴韋任</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Leo Lai</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -10906,7 +10906,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
@@ -11006,7 +11006,7 @@
       </c>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AA60" t="inlineStr">
@@ -11058,17 +11058,17 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>赤木心惠</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>Akagi Shinei</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>0AA82</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -11153,22 +11153,22 @@
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W61" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X61" t="inlineStr">
@@ -11218,7 +11218,7 @@
       </c>
       <c r="AG61" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH61" t="inlineStr">
@@ -11228,24 +11228,24 @@
       </c>
       <c r="AI61" t="inlineStr">
         <is>
-          <t>4000</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>莊正忠</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Hugo Chuang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -11255,7 +11255,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -11265,17 +11265,17 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
@@ -11305,12 +11305,12 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
@@ -11325,27 +11325,27 @@
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W62" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X62" t="inlineStr">
@@ -11405,24 +11405,24 @@
       </c>
       <c r="AI62" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>李俊賢</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Kiven Lee</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>0AA95</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -11432,17 +11432,17 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
@@ -11452,7 +11452,7 @@
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
@@ -11477,17 +11477,17 @@
       </c>
       <c r="N63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
@@ -11502,27 +11502,27 @@
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="W63" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="X63" t="inlineStr">
@@ -11582,24 +11582,24 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>1980</t>
+          <t>4000</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>李侑萱</t>
+          <t>莊正忠</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Yolanda Lee</t>
+          <t>Hugo Chuang</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>0AA96</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
@@ -11609,12 +11609,12 @@
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -11624,12 +11624,12 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
@@ -11659,12 +11659,12 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
@@ -11679,27 +11679,27 @@
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W64" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X64" t="inlineStr">
@@ -11759,24 +11759,24 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1680</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>葉雲旭</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Johnny Yeh</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>0AA96</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -11786,12 +11786,12 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -11806,7 +11806,7 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
@@ -11831,17 +11831,17 @@
       </c>
       <c r="N65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
@@ -11856,27 +11856,27 @@
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W65" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X65" t="inlineStr">
@@ -11936,19 +11936,19 @@
       </c>
       <c r="AI65" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>凃美君</t>
+          <t>李侑萱</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Chun Tu</t>
+          <t>Yolanda Lee</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -12120,17 +12120,17 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>川中郁果</t>
+          <t>葉雲旭</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Kawanaka Ikuka</t>
+          <t>Johnny Yeh</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>0B</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
@@ -12150,7 +12150,7 @@
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
@@ -12185,12 +12185,12 @@
       </c>
       <c r="N67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P67" t="inlineStr">
@@ -12235,7 +12235,7 @@
       </c>
       <c r="X67" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y67" t="inlineStr">
@@ -12290,24 +12290,24 @@
       </c>
       <c r="AI67" t="inlineStr">
         <is>
-          <t>420</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>黃承緯</t>
+          <t>凃美君</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Eric Huang</t>
+          <t>Chun Tu</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>0AA96</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -12317,12 +12317,12 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
@@ -12332,12 +12332,12 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
@@ -12362,17 +12362,17 @@
       </c>
       <c r="N68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
@@ -12387,27 +12387,27 @@
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X68" t="inlineStr">
@@ -12467,24 +12467,24 @@
       </c>
       <c r="AI68" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>郭家渝</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Zoe Kuo</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
@@ -12499,17 +12499,17 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
@@ -12544,12 +12544,12 @@
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
@@ -12564,32 +12564,32 @@
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W69" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X69" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y69" t="inlineStr">
@@ -12644,24 +12644,24 @@
       </c>
       <c r="AI69" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>420</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>郭亮均</t>
+          <t>楊哲熙</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Joy Kuo</t>
+          <t>Jesse Yang</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>2AA8A</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
@@ -12671,27 +12671,27 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
@@ -12716,17 +12716,17 @@
       </c>
       <c r="N70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
@@ -12741,37 +12741,37 @@
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Y70" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Z70" t="inlineStr">
@@ -12811,7 +12811,7 @@
       </c>
       <c r="AG70" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="AH70" t="inlineStr">
@@ -12821,19 +12821,19 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>2100</t>
+          <t>140</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>李漩靜</t>
+          <t>黃承緯</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Jamie Lee</t>
+          <t>Eric Huang</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
@@ -13005,12 +13005,12 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>李品于</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Spring Lee</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
@@ -13045,7 +13045,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -13075,7 +13075,7 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P72" t="inlineStr">
@@ -13175,24 +13175,24 @@
       </c>
       <c r="AI72" t="inlineStr">
         <is>
-          <t>1820</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>陳璜琪</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Vincent Chen</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -13272,37 +13272,37 @@
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="U73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="V73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="W73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="X73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Y73" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Z73" t="inlineStr">
@@ -13352,24 +13352,24 @@
       </c>
       <c r="AI73" t="inlineStr">
         <is>
-          <t>1120</t>
+          <t>2100</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>謝昔祥</t>
+          <t>李漩靜</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Adonis Hsieh</t>
+          <t>Jamie Lee</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -13536,17 +13536,17 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>江德蓉</t>
+          <t>李品于</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Leila Jiang</t>
+          <t>Spring Lee</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>2AA8C</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -13713,17 +13713,17 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>謝勝旭</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Benjamin Hsieh</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>2AA8D</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -13733,27 +13733,27 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -13778,17 +13778,17 @@
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
@@ -13808,22 +13808,22 @@
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W76" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X76" t="inlineStr">
@@ -13883,24 +13883,24 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1120</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>蔡明彬</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Jeff Tsai</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>2AA8S</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -13925,7 +13925,7 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I77" t="inlineStr">
@@ -14060,24 +14060,24 @@
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>胡美燕</t>
+          <t>江德蓉</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>May Hu</t>
+          <t>Leila Jiang</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>2AA8S</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
@@ -14102,7 +14102,7 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>140</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
@@ -14237,24 +14237,24 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>1820</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>張雅惠</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Sofeya Chang</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>2AA8S</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
@@ -14264,17 +14264,17 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
@@ -14284,7 +14284,7 @@
       </c>
       <c r="I79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="J79" t="inlineStr">
@@ -14309,17 +14309,17 @@
       </c>
       <c r="N79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
@@ -14334,7 +14334,7 @@
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
@@ -14414,19 +14414,19 @@
       </c>
       <c r="AI79" t="inlineStr">
         <is>
-          <t>1680</t>
+          <t>560</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>林華宸</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Wayne Lin</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
@@ -14598,172 +14598,703 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>胡美燕</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>May Hu</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W81" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI81" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>張雅惠</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Sofeya Chang</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W82" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI82" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>林華宸</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Wayne Lin</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>2AA8S</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Q83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="T83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="U83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="V83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="W83" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="X83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Y83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="Z83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AA83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AC83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AE83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AH83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI83" t="inlineStr">
+        <is>
+          <t>1680</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="B81" t="inlineStr">
+      <c r="B84" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>7,140</t>
-        </is>
-      </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>8,280</t>
-        </is>
-      </c>
-      <c r="G81" t="inlineStr">
-        <is>
-          <t>8,260</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>7,420</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8,560</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>8,540</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
         <is>
           <t>3,920</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
-        <is>
-          <t>7,700</t>
-        </is>
-      </c>
-      <c r="J81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N81" t="inlineStr">
-        <is>
-          <t>7,280</t>
-        </is>
-      </c>
-      <c r="O81" t="inlineStr">
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>7,980</t>
+        </is>
+      </c>
+      <c r="J84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>7,560</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>9,700</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>9,840</t>
+        </is>
+      </c>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>2,140</t>
+        </is>
+      </c>
+      <c r="R84" t="inlineStr">
+        <is>
+          <t>2,000</t>
+        </is>
+      </c>
+      <c r="S84" t="inlineStr">
+        <is>
+          <t>9,360</t>
+        </is>
+      </c>
+      <c r="T84" t="inlineStr">
+        <is>
+          <t>8,860</t>
+        </is>
+      </c>
+      <c r="U84" t="inlineStr">
         <is>
           <t>9,420</t>
         </is>
       </c>
-      <c r="P81" t="inlineStr">
-        <is>
-          <t>9,560</t>
-        </is>
-      </c>
-      <c r="Q81" t="inlineStr">
-        <is>
-          <t>2,140</t>
-        </is>
-      </c>
-      <c r="R81" t="inlineStr">
-        <is>
-          <t>2,000</t>
-        </is>
-      </c>
-      <c r="S81" t="inlineStr">
-        <is>
-          <t>9,080</t>
-        </is>
-      </c>
-      <c r="T81" t="inlineStr">
-        <is>
-          <t>8,580</t>
-        </is>
-      </c>
-      <c r="U81" t="inlineStr">
+      <c r="V84" t="inlineStr">
         <is>
           <t>9,140</t>
         </is>
       </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>8,860</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>9,480</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr">
+      <c r="W84" t="inlineStr">
+        <is>
+          <t>9,760</t>
+        </is>
+      </c>
+      <c r="X84" t="inlineStr">
         <is>
           <t>700</t>
         </is>
       </c>
-      <c r="Y81" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="Z81" t="inlineStr">
+      <c r="Y84" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="Z84" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AA81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB81" t="inlineStr">
-        <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="AC81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD81" t="inlineStr">
+      <c r="AA84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AB84" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="AC84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AD84" t="inlineStr">
         <is>
           <t>280</t>
         </is>
       </c>
-      <c r="AE81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH81" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI81" t="inlineStr">
-        <is>
-          <t>112,380</t>
+      <c r="AE84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AF84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AG84" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="AH84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="AI84" t="inlineStr">
+        <is>
+          <t>116,020</t>
         </is>
       </c>
     </row>
